--- a/E.xlsx
+++ b/E.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="D34">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/E.xlsx
+++ b/E.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Banana and veg</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>paratha</t>
+  </si>
+  <si>
+    <t>namkeen,juice</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D34"/>
+  <dimension ref="C5:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,8 +707,16 @@
         <v>164</v>
       </c>
     </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D34">
+  <conditionalFormatting sqref="D5:D35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -732,7 +743,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D5:D34</xm:sqref>
+          <xm:sqref>D5:D35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/E.xlsx
+++ b/E.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Banana and veg</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D35"/>
+  <dimension ref="C5:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,8 +715,16 @@
         <v>299</v>
       </c>
     </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D35">
+  <conditionalFormatting sqref="D5:D36">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -743,7 +751,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D5:D35</xm:sqref>
+          <xm:sqref>D5:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/E.xlsx
+++ b/E.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="C5:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
